--- a/results/robust_recourse_iterative/Main workbooks/recourse algorithm results comparison.xlsx
+++ b/results/robust_recourse_iterative/Main workbooks/recourse algorithm results comparison.xlsx
@@ -14,10 +14,8 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Combined results recourse algorithm</t>
   </si>
@@ -525,17 +523,14 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredAreaSeries>
               <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
-                  <c:v>EVPI</c:v>
+                  <c:v>VSS</c:v>
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="20000"/>
-                      <a:lumOff val="80000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -601,7 +596,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$23:$C$35</c15:sqref>
+                          <c15:sqref>Sheet1!$B$23:$B$35</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -609,64 +604,67 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>134.18</c:v>
+                        <c:v>126.96</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>134.18</c:v>
+                        <c:v>130.75</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>134.18</c:v>
+                        <c:v>130.47</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>134.18</c:v>
+                        <c:v>130.47</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>134.18</c:v>
+                        <c:v>131.04499999999999</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>134.18</c:v>
+                        <c:v>129.83000000000001</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>134.18</c:v>
+                        <c:v>129.83000000000001</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>134.18</c:v>
+                        <c:v>127.79</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>134.18</c:v>
+                        <c:v>127.79</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>134.18</c:v>
+                        <c:v>127.53</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>134.18</c:v>
+                        <c:v>128.53</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>134.18</c:v>
+                        <c:v>128.53</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>134.18</c:v>
+                        <c:v>128.19999999999999</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-B05E-41FC-BF6B-75FB5E8DA0E5}"/>
+                    <c16:uniqueId val="{00000000-B05E-41FC-BF6B-75FB5E8DA0E5}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
             </c15:filteredAreaSeries>
             <c15:filteredAreaSeries>
               <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
+                <c:idx val="1"/>
+                <c:order val="1"/>
                 <c:tx>
-                  <c:v>VSS</c:v>
+                  <c:v>EVPI</c:v>
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="20000"/>
+                      <a:lumOff val="80000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -675,7 +673,7 @@
                 </c:spPr>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$23:$A$35</c15:sqref>
@@ -729,10 +727,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$23:$B$35</c15:sqref>
+                          <c15:sqref>Sheet1!$C$23:$C$35</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -740,50 +738,50 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>126.96</c:v>
+                        <c:v>134.18</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>130.75</c:v>
+                        <c:v>134.18</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>130.47</c:v>
+                        <c:v>134.18</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>130.47</c:v>
+                        <c:v>134.18</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>131.04499999999999</c:v>
+                        <c:v>134.18</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>129.83000000000001</c:v>
+                        <c:v>134.18</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>129.83000000000001</c:v>
+                        <c:v>134.18</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>127.79</c:v>
+                        <c:v>134.18</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>127.79</c:v>
+                        <c:v>134.18</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>127.53</c:v>
+                        <c:v>134.18</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>128.53</c:v>
+                        <c:v>134.18</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>128.53</c:v>
+                        <c:v>134.18</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>128.19999999999999</c:v>
+                        <c:v>134.18</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-B05E-41FC-BF6B-75FB5E8DA0E5}"/>
+                    <c16:uniqueId val="{00000001-B05E-41FC-BF6B-75FB5E8DA0E5}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2433,7 +2431,7 @@
                 </c:spPr>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$23:$A$35</c15:sqref>
@@ -2487,7 +2485,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$O$23:$O$35</c15:sqref>
@@ -2539,7 +2537,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-546F-48C0-A34B-CA7D6DDFA61F}"/>
                   </c:ext>
@@ -3595,10 +3593,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$39:$B$49</c:f>
+              <c:f>Sheet1!$B$39:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>112.788049658072</c:v>
                 </c:pt>
@@ -3631,6 +3629,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>112.66118740144999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>112.38531552530962</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>112.48501469374948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3811,7 +3815,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$23:$A$35</c15:sqref>
@@ -3865,7 +3869,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$39:$B$49</c15:sqref>
@@ -3912,7 +3916,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-280E-4780-AE8C-E69D567DD190}"/>
                   </c:ext>
@@ -4160,7 +4164,7 @@
         </c:txPr>
         <c:crossAx val="883990904"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
         <c:axId val="883990904"/>
@@ -4297,7 +4301,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6578,15 +6582,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>452004</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105640</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>105639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>404379</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>58015</xdr:colOff>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>138544</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6638,16 +6642,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>445076</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>98712</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6670,16 +6674,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>444212</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>374939</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>398319</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>329046</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6701,313 +6705,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="39">
-          <cell r="A39">
-            <v>5</v>
-          </cell>
-          <cell r="B39">
-            <v>48.275643736800184</v>
-          </cell>
-          <cell r="C39">
-            <v>131.86000000000001</v>
-          </cell>
-          <cell r="D39">
-            <v>22.545795752419867</v>
-          </cell>
-          <cell r="E39">
-            <v>108.27187127943978</v>
-          </cell>
-          <cell r="F39">
-            <v>99.429301529510141</v>
-          </cell>
-          <cell r="G39">
-            <v>109.20354038562397</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>10</v>
-          </cell>
-          <cell r="B40">
-            <v>79.745700844568205</v>
-          </cell>
-          <cell r="C40">
-            <v>131.86000000000001</v>
-          </cell>
-          <cell r="D40">
-            <v>22.545795752419867</v>
-          </cell>
-          <cell r="E40">
-            <v>113.67031379430423</v>
-          </cell>
-          <cell r="F40">
-            <v>99.429301529510141</v>
-          </cell>
-          <cell r="G40">
-            <v>112.78804965807207</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>15</v>
-          </cell>
-          <cell r="B41">
-            <v>83.082676005325951</v>
-          </cell>
-          <cell r="C41">
-            <v>131.86000000000001</v>
-          </cell>
-          <cell r="D41">
-            <v>22.545795752419867</v>
-          </cell>
-          <cell r="E41">
-            <v>114.21539494830016</v>
-          </cell>
-          <cell r="F41">
-            <v>99.429301529510141</v>
-          </cell>
-          <cell r="G41">
-            <v>117.15078233754488</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>20</v>
-          </cell>
-          <cell r="B42">
-            <v>100.31233925538501</v>
-          </cell>
-          <cell r="C42">
-            <v>131.86000000000001</v>
-          </cell>
-          <cell r="D42">
-            <v>22.545795752419867</v>
-          </cell>
-          <cell r="E42">
-            <v>116.08138426208811</v>
-          </cell>
-          <cell r="F42">
-            <v>99.429301529510141</v>
-          </cell>
-          <cell r="G42">
-            <v>117.63506396257284</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>30</v>
-          </cell>
-          <cell r="B43">
-            <v>102.9305061684053</v>
-          </cell>
-          <cell r="C43">
-            <v>131.86000000000001</v>
-          </cell>
-          <cell r="D43">
-            <v>22.545795752419867</v>
-          </cell>
-          <cell r="E43">
-            <v>115.35200699157679</v>
-          </cell>
-          <cell r="F43">
-            <v>99.429301529510141</v>
-          </cell>
-          <cell r="G43">
-            <v>119.35093760876916</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>40</v>
-          </cell>
-          <cell r="B44">
-            <v>106.64038936756984</v>
-          </cell>
-          <cell r="C44">
-            <v>131.86000000000001</v>
-          </cell>
-          <cell r="D44">
-            <v>22.545795752419867</v>
-          </cell>
-          <cell r="E44">
-            <v>115.0099528276165</v>
-          </cell>
-          <cell r="F44">
-            <v>99.429301529510141</v>
-          </cell>
-          <cell r="G44">
-            <v>116.68525913860371</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>50</v>
-          </cell>
-          <cell r="B45">
-            <v>107.85873644733994</v>
-          </cell>
-          <cell r="C45">
-            <v>131.86000000000001</v>
-          </cell>
-          <cell r="D45">
-            <v>22.545795752419867</v>
-          </cell>
-          <cell r="E45">
-            <v>114.69560382312626</v>
-          </cell>
-          <cell r="F45">
-            <v>99.429301529510141</v>
-          </cell>
-          <cell r="G45">
-            <v>115.87529231821765</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>75</v>
-          </cell>
-          <cell r="B46">
-            <v>108.22254629152117</v>
-          </cell>
-          <cell r="C46">
-            <v>131.86000000000001</v>
-          </cell>
-          <cell r="D46">
-            <v>22.545795752419867</v>
-          </cell>
-          <cell r="E46">
-            <v>114.08852893125128</v>
-          </cell>
-          <cell r="F46">
-            <v>99.429301529510141</v>
-          </cell>
-          <cell r="G46">
-            <v>115.87648862685775</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>100</v>
-          </cell>
-          <cell r="B47">
-            <v>107.63446156943486</v>
-          </cell>
-          <cell r="C47">
-            <v>131.86000000000001</v>
-          </cell>
-          <cell r="D47">
-            <v>22.545795752419867</v>
-          </cell>
-          <cell r="E47">
-            <v>112.93770485283977</v>
-          </cell>
-          <cell r="F47">
-            <v>99.429301529510141</v>
-          </cell>
-          <cell r="G47">
-            <v>114.75802726767851</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>150</v>
-          </cell>
-          <cell r="B48">
-            <v>107.605033751498</v>
-          </cell>
-          <cell r="C48">
-            <v>131.86000000000001</v>
-          </cell>
-          <cell r="D48">
-            <v>22.545795752419867</v>
-          </cell>
-          <cell r="E48">
-            <v>112.91023522267056</v>
-          </cell>
-          <cell r="F48">
-            <v>99.429301529510141</v>
-          </cell>
-          <cell r="G48">
-            <v>112.61797262974525</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>200</v>
-          </cell>
-          <cell r="B49">
-            <v>107.605033751498</v>
-          </cell>
-          <cell r="C49">
-            <v>131.86000000000001</v>
-          </cell>
-          <cell r="D49">
-            <v>22.545795752419867</v>
-          </cell>
-          <cell r="E49">
-            <v>112.91023522267056</v>
-          </cell>
-          <cell r="F49">
-            <v>99.429301529510141</v>
-          </cell>
-          <cell r="G49">
-            <v>112.65443546698727</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>300</v>
-          </cell>
-          <cell r="B50">
-            <v>108.31154051726779</v>
-          </cell>
-          <cell r="C50">
-            <v>131.86000000000001</v>
-          </cell>
-          <cell r="D50">
-            <v>22.545795752419867</v>
-          </cell>
-          <cell r="E50">
-            <v>111.63559539105303</v>
-          </cell>
-          <cell r="F50">
-            <v>99.429301529510141</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>400</v>
-          </cell>
-          <cell r="B51">
-            <v>108.31154051726779</v>
-          </cell>
-          <cell r="C51">
-            <v>131.86000000000001</v>
-          </cell>
-          <cell r="D51">
-            <v>22.545795752419867</v>
-          </cell>
-          <cell r="E51">
-            <v>111.63559539105303</v>
-          </cell>
-          <cell r="F51">
-            <v>99.429301529510141</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7275,8 +6972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC25" sqref="AC25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AG62" sqref="AG62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8808,8 +8505,8 @@
       <c r="A50" s="16">
         <v>300</v>
       </c>
-      <c r="B50" t="s">
-        <v>1</v>
+      <c r="B50">
+        <v>112.38531552530962</v>
       </c>
       <c r="C50" s="12">
         <v>131.86000000000001</v>
@@ -8822,8 +8519,8 @@
       <c r="A51" s="17">
         <v>400</v>
       </c>
-      <c r="B51" t="s">
-        <v>1</v>
+      <c r="B51">
+        <v>112.48501469374948</v>
       </c>
       <c r="C51" s="12">
         <v>131.86000000000001</v>

--- a/results/robust_recourse_iterative/Main workbooks/recourse algorithm results comparison.xlsx
+++ b/results/robust_recourse_iterative/Main workbooks/recourse algorithm results comparison.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2496,25 +2495,25 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>115.05</c:v>
+                        <c:v>111.18</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>113.58846935776199</c:v>
+                        <c:v>112.21</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>113.77667603384999</c:v>
+                        <c:v>112.35</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>113.77667583039999</c:v>
+                        <c:v>112.35</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>109.10116875113199</c:v>
+                        <c:v>108.67</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>108.939860599159</c:v>
+                        <c:v>108.58</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>108.522081297307</c:v>
+                        <c:v>108.16</c:v>
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>108.30782755820999</c:v>
@@ -2862,25 +2861,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>115.05</c:v>
+                  <c:v>111.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.58846935776199</c:v>
+                  <c:v>112.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.77667603384999</c:v>
+                  <c:v>112.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113.77667583039999</c:v>
+                  <c:v>112.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.10116875113199</c:v>
+                  <c:v>108.67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108.939860599159</c:v>
+                  <c:v>108.58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108.522081297307</c:v>
+                  <c:v>108.16</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>108.30782755820999</c:v>
@@ -6642,16 +6641,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>98712</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>71004</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>462394</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>174913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>398318</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6972,8 +6971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AG62" sqref="AG62"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7799,7 +7798,7 @@
         <v>5</v>
       </c>
       <c r="O23">
-        <v>115.05</v>
+        <v>111.18</v>
       </c>
       <c r="P23" s="11">
         <v>120.37</v>
@@ -7843,7 +7842,7 @@
         <v>10</v>
       </c>
       <c r="O24">
-        <v>113.58846935776199</v>
+        <v>112.21</v>
       </c>
       <c r="P24" s="11">
         <v>120.37</v>
@@ -7887,7 +7886,7 @@
         <v>15</v>
       </c>
       <c r="O25">
-        <v>113.77667603384999</v>
+        <v>112.35</v>
       </c>
       <c r="P25" s="11">
         <v>120.37</v>
@@ -7931,7 +7930,7 @@
         <v>20</v>
       </c>
       <c r="O26">
-        <v>113.77667583039999</v>
+        <v>112.35</v>
       </c>
       <c r="P26" s="11">
         <v>120.37</v>
@@ -7975,7 +7974,7 @@
         <v>30</v>
       </c>
       <c r="O27">
-        <v>109.10116875113199</v>
+        <v>108.67</v>
       </c>
       <c r="P27" s="11">
         <v>120.37</v>
@@ -8019,7 +8018,7 @@
         <v>40</v>
       </c>
       <c r="O28">
-        <v>108.939860599159</v>
+        <v>108.58</v>
       </c>
       <c r="P28" s="11">
         <v>120.37</v>
@@ -8063,7 +8062,7 @@
         <v>50</v>
       </c>
       <c r="O29">
-        <v>108.522081297307</v>
+        <v>108.16</v>
       </c>
       <c r="P29" s="11">
         <v>120.37</v>

--- a/results/robust_recourse_iterative/Main workbooks/recourse algorithm results comparison.xlsx
+++ b/results/robust_recourse_iterative/Main workbooks/recourse algorithm results comparison.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Combined results recourse algorithm</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>strict</t>
+  </si>
+  <si>
+    <t>strict eev</t>
+  </si>
+  <si>
+    <t>s/o</t>
+  </si>
+  <si>
+    <t>s/o eev</t>
   </si>
 </sst>
 </file>
@@ -342,7 +354,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nb-NO" sz="2400"/>
-              <a:t>Initial Case A</a:t>
+              <a:t>Initial Case A: RA</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1082,7 +1094,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>RA Objective Value</c:v>
+            <c:v>RA</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2102,6 +2114,16 @@
               <a:rPr lang="nb-NO" sz="2400"/>
               <a:t>Initial Case B</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>: RA,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2400"/>
+              <a:t> No Penalty</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2219,43 +2241,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2495,43 +2517,43 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>111.18</c:v>
+                        <c:v>102.94124650222939</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>112.21</c:v>
+                        <c:v>103.10657399159217</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>112.35</c:v>
+                        <c:v>106.097247562929</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>112.35</c:v>
+                        <c:v>105.82528597150893</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>108.67</c:v>
+                        <c:v>104.24589839139752</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>108.58</c:v>
+                        <c:v>102.62897772947949</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>108.16</c:v>
+                        <c:v>102.61263557500972</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>108.30782755820999</c:v>
+                        <c:v>102.46649683514279</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>108.30782755820999</c:v>
+                        <c:v>102.47097684521118</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>108.307753839645</c:v>
+                        <c:v>104.86033637984058</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>108.307753812408</c:v>
+                        <c:v>104.02769253557477</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>108.11871201266</c:v>
+                        <c:v>104.12488928479945</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>108.100436427529</c:v>
+                        <c:v>104.29</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2712,43 +2734,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105.79</c:v>
+                  <c:v>104.76568665071467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2840,7 +2862,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>RA Objective Value</c:v>
+            <c:v>RA</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2861,43 +2883,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>111.18</c:v>
+                  <c:v>102.94124650222939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112.21</c:v>
+                  <c:v>103.10657399159217</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112.35</c:v>
+                  <c:v>106.097247562929</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112.35</c:v>
+                  <c:v>105.82528597150893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108.67</c:v>
+                  <c:v>104.24589839139752</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108.58</c:v>
+                  <c:v>102.62897772947949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108.16</c:v>
+                  <c:v>102.61263557500972</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>108.30782755820999</c:v>
+                  <c:v>102.46649683514279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108.30782755820999</c:v>
+                  <c:v>102.47097684521118</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>108.307753839645</c:v>
+                  <c:v>104.86033637984058</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108.307753812408</c:v>
+                  <c:v>104.02769253557477</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>108.11871201266</c:v>
+                  <c:v>104.12488928479945</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>108.100436427529</c:v>
+                  <c:v>104.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2926,7 +2948,7 @@
         <c:axId val="883990576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="104"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3252,6 +3274,13 @@
               <a:rPr lang="nb-NO" sz="2400"/>
               <a:t>Initial Case C</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>: RA</a:t>
+            </a:r>
+            <a:endParaRPr lang="nb-NO" sz="2400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3429,9 +3458,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
               <a:round/>
@@ -3576,7 +3603,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>RA Objective Value</c:v>
+            <c:v>RA</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4065,6 +4092,2318 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="106"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1600"/>
+                  <a:t>Oil Output [Sm3/h]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="883990904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="883990904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1600"/>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="883990576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2400"/>
+              <a:t>Initial Case B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>: RA,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2400"/>
+              <a:t> Strict</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$23:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$23:$Q$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D941-4B09-AA3C-7B1FDA538EF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="883990904"/>
+        <c:axId val="883990576"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>EVPI</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="20000"/>
+                      <a:lumOff val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln w="25400">
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$23:$A$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$P$23:$P$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-D941-4B09-AA3C-7B1FDA538EF5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>VSS</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln w="25400">
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$23:$A$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$O$23:$O$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>102.94124650222939</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>103.10657399159217</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>106.097247562929</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>105.82528597150893</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>104.24589839139752</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>102.62897772947949</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>102.61263557500972</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>102.46649683514279</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>102.47097684521118</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>104.86033637984058</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>104.02769253557477</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>104.12488928479945</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>104.29</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-D941-4B09-AA3C-7B1FDA538EF5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>Infeasible Count</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:alpha val="38000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$23:$A$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$23:$E$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-D941-4B09-AA3C-7B1FDA538EF5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+          </c:ext>
+        </c:extLst>
+      </c:areaChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>EEV</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$23:$S$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>64.901935701163652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.901935701163652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.901935701163652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.901935701163652</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.901935701163652</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.901935701163652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.901935701163652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.901935701163652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.901935701163652</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.901935701163652</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.901935701163652</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64.901935701163652</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64.901935701163652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D941-4B09-AA3C-7B1FDA538EF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$23:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D941-4B09-AA3C-7B1FDA538EF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>RA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$23:$R$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>95.148257662984349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.831261727184952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.472281920805003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.1040886439125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104.24589839139752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.62009605506843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.60375390059863</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101.45761516073169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101.46209517080013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103.7663886352686</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103.47756685467162</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103.0441127532264</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D941-4B09-AA3C-7B1FDA538EF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="883990904"/>
+        <c:axId val="883990576"/>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="883990576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1600"/>
+                  <a:t>Oil Output [Sm3/h]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="883990904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="883990904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1600"/>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="883990576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2400"/>
+              <a:t>Initial Case B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>: RA,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2400"/>
+              <a:t> Switch-Off</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$23:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$23:$Q$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104.76568665071467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDCB-4526-8DD1-79E6B0CBBB5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="883990904"/>
+        <c:axId val="883990576"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>EVPI</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="20000"/>
+                      <a:lumOff val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln w="25400">
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$23:$A$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$P$23:$P$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>120.37</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-BDCB-4526-8DD1-79E6B0CBBB5D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>VSS</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln w="25400">
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$23:$A$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$O$23:$O$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>102.94124650222939</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>103.10657399159217</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>106.097247562929</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>105.82528597150893</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>104.24589839139752</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>102.62897772947949</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>102.61263557500972</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>102.46649683514279</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>102.47097684521118</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>104.86033637984058</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>104.02769253557477</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>104.12488928479945</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>104.29</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-BDCB-4526-8DD1-79E6B0CBBB5D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>Infeasible Count</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:alpha val="38000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$23:$A$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$23:$E$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-BDCB-4526-8DD1-79E6B0CBBB5D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+          </c:ext>
+        </c:extLst>
+      </c:areaChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>EEV</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$23:$U$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>101.14203451884703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.14203451884703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.14203451884703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.14203451884703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.14203451884703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.14203451884703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.14203451884703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101.14203451884703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101.14203451884703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101.14203451884703</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.14203451884703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>101.14203451884703</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>101.14203451884703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDCB-4526-8DD1-79E6B0CBBB5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$23:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BDCB-4526-8DD1-79E6B0CBBB5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>RA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$23:$T$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>101.46986872327017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102.42272161834309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.5954243621786</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.65801157125878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104.24589839139753</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102.50667366980555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.49033151533575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.34419277546884</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102.34867278553726</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104.86033637984059</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104.02769253557477</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>104.09193638257148</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BDCB-4526-8DD1-79E6B0CBBB5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="883990904"/>
+        <c:axId val="883990576"/>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="883990576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4513,6 +6852,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6577,20 +8996,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>105640</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>105639</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>348094</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>58015</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>138544</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300469</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6641,16 +10092,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>462394</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>174913</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>393122</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>140274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>398318</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>329046</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>190497</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6673,16 +10124,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>374939</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>340305</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>329046</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>294412</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6698,6 +10149,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>316924</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50224</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>502226</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>32906</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6969,10 +10484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AK62" sqref="AK62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7639,7 +11154,7 @@
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>300</v>
       </c>
@@ -7687,7 +11202,7 @@
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>400</v>
       </c>
@@ -7735,15 +11250,18 @@
       </c>
       <c r="N18" s="5"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
+      <c r="R21">
+        <v>64.901935701163652</v>
+      </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -7762,8 +11280,20 @@
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
+      <c r="R22" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" t="s">
+        <v>14</v>
+      </c>
+      <c r="T22" t="s">
+        <v>15</v>
+      </c>
+      <c r="U22" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>5</v>
       </c>
@@ -7798,16 +11328,28 @@
         <v>5</v>
       </c>
       <c r="O23">
-        <v>111.18</v>
+        <v>102.94124650222939</v>
       </c>
       <c r="P23" s="11">
         <v>120.37</v>
       </c>
       <c r="Q23" s="9">
-        <v>105.79</v>
+        <v>104.76568665071467</v>
+      </c>
+      <c r="R23">
+        <v>95.148257662984349</v>
+      </c>
+      <c r="S23">
+        <v>64.901935701163652</v>
+      </c>
+      <c r="T23">
+        <v>101.46986872327017</v>
+      </c>
+      <c r="U23">
+        <v>101.14203451884703</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>10</v>
       </c>
@@ -7842,16 +11384,28 @@
         <v>10</v>
       </c>
       <c r="O24">
-        <v>112.21</v>
+        <v>103.10657399159217</v>
       </c>
       <c r="P24" s="11">
         <v>120.37</v>
       </c>
       <c r="Q24" s="9">
-        <v>105.79</v>
+        <v>104.76568665071467</v>
+      </c>
+      <c r="R24">
+        <v>92.831261727184952</v>
+      </c>
+      <c r="S24">
+        <v>64.901935701163652</v>
+      </c>
+      <c r="T24">
+        <v>102.42272161834309</v>
+      </c>
+      <c r="U24">
+        <v>101.14203451884703</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>15</v>
       </c>
@@ -7886,16 +11440,28 @@
         <v>15</v>
       </c>
       <c r="O25">
-        <v>112.35</v>
+        <v>106.097247562929</v>
       </c>
       <c r="P25" s="11">
         <v>120.37</v>
       </c>
       <c r="Q25" s="9">
-        <v>105.79</v>
+        <v>104.76568665071467</v>
+      </c>
+      <c r="R25">
+        <v>94.472281920805003</v>
+      </c>
+      <c r="S25">
+        <v>64.901935701163652</v>
+      </c>
+      <c r="T25">
+        <v>105.5954243621786</v>
+      </c>
+      <c r="U25">
+        <v>101.14203451884703</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>20</v>
       </c>
@@ -7930,16 +11496,28 @@
         <v>20</v>
       </c>
       <c r="O26">
-        <v>112.35</v>
+        <v>105.82528597150893</v>
       </c>
       <c r="P26" s="11">
         <v>120.37</v>
       </c>
       <c r="Q26" s="9">
-        <v>105.79</v>
+        <v>104.76568665071467</v>
+      </c>
+      <c r="R26">
+        <v>102.1040886439125</v>
+      </c>
+      <c r="S26">
+        <v>64.901935701163652</v>
+      </c>
+      <c r="T26">
+        <v>105.65801157125878</v>
+      </c>
+      <c r="U26">
+        <v>101.14203451884703</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>30</v>
       </c>
@@ -7974,16 +11552,28 @@
         <v>30</v>
       </c>
       <c r="O27">
-        <v>108.67</v>
+        <v>104.24589839139752</v>
       </c>
       <c r="P27" s="11">
         <v>120.37</v>
       </c>
       <c r="Q27" s="9">
-        <v>105.79</v>
+        <v>104.76568665071467</v>
+      </c>
+      <c r="R27">
+        <v>104.24589839139752</v>
+      </c>
+      <c r="S27">
+        <v>64.901935701163652</v>
+      </c>
+      <c r="T27">
+        <v>104.24589839139753</v>
+      </c>
+      <c r="U27">
+        <v>101.14203451884703</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>40</v>
       </c>
@@ -8018,16 +11608,28 @@
         <v>40</v>
       </c>
       <c r="O28">
-        <v>108.58</v>
+        <v>102.62897772947949</v>
       </c>
       <c r="P28" s="11">
         <v>120.37</v>
       </c>
       <c r="Q28" s="9">
-        <v>105.79</v>
+        <v>104.76568665071467</v>
+      </c>
+      <c r="R28">
+        <v>101.62009605506843</v>
+      </c>
+      <c r="S28">
+        <v>64.901935701163652</v>
+      </c>
+      <c r="T28">
+        <v>102.50667366980555</v>
+      </c>
+      <c r="U28">
+        <v>101.14203451884703</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>50</v>
       </c>
@@ -8062,16 +11664,28 @@
         <v>50</v>
       </c>
       <c r="O29">
-        <v>108.16</v>
+        <v>102.61263557500972</v>
       </c>
       <c r="P29" s="11">
         <v>120.37</v>
       </c>
       <c r="Q29" s="9">
-        <v>105.79</v>
+        <v>104.76568665071467</v>
+      </c>
+      <c r="R29">
+        <v>101.60375390059863</v>
+      </c>
+      <c r="S29">
+        <v>64.901935701163652</v>
+      </c>
+      <c r="T29">
+        <v>102.49033151533575</v>
+      </c>
+      <c r="U29">
+        <v>101.14203451884703</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>75</v>
       </c>
@@ -8106,16 +11720,28 @@
         <v>75</v>
       </c>
       <c r="O30">
-        <v>108.30782755820999</v>
+        <v>102.46649683514279</v>
       </c>
       <c r="P30" s="11">
         <v>120.37</v>
       </c>
       <c r="Q30" s="9">
-        <v>105.79</v>
+        <v>104.76568665071467</v>
+      </c>
+      <c r="R30">
+        <v>101.45761516073169</v>
+      </c>
+      <c r="S30">
+        <v>64.901935701163652</v>
+      </c>
+      <c r="T30">
+        <v>102.34419277546884</v>
+      </c>
+      <c r="U30">
+        <v>101.14203451884703</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>100</v>
       </c>
@@ -8150,16 +11776,28 @@
         <v>100</v>
       </c>
       <c r="O31">
-        <v>108.30782755820999</v>
+        <v>102.47097684521118</v>
       </c>
       <c r="P31" s="11">
         <v>120.37</v>
       </c>
       <c r="Q31" s="9">
-        <v>105.79</v>
+        <v>104.76568665071467</v>
+      </c>
+      <c r="R31">
+        <v>101.46209517080013</v>
+      </c>
+      <c r="S31">
+        <v>64.901935701163652</v>
+      </c>
+      <c r="T31">
+        <v>102.34867278553726</v>
+      </c>
+      <c r="U31">
+        <v>101.14203451884703</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>150</v>
       </c>
@@ -8194,16 +11832,28 @@
         <v>150</v>
       </c>
       <c r="O32">
-        <v>108.307753839645</v>
+        <v>104.86033637984058</v>
       </c>
       <c r="P32" s="11">
         <v>120.37</v>
       </c>
       <c r="Q32" s="9">
-        <v>105.79</v>
+        <v>104.76568665071467</v>
+      </c>
+      <c r="R32">
+        <v>103.7663886352686</v>
+      </c>
+      <c r="S32">
+        <v>64.901935701163652</v>
+      </c>
+      <c r="T32">
+        <v>104.86033637984059</v>
+      </c>
+      <c r="U32">
+        <v>101.14203451884703</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>200</v>
       </c>
@@ -8238,16 +11888,28 @@
         <v>200</v>
       </c>
       <c r="O33">
-        <v>108.307753812408</v>
+        <v>104.02769253557477</v>
       </c>
       <c r="P33" s="11">
         <v>120.37</v>
       </c>
       <c r="Q33" s="9">
-        <v>105.79</v>
+        <v>104.76568665071467</v>
+      </c>
+      <c r="R33">
+        <v>103.47756685467162</v>
+      </c>
+      <c r="S33">
+        <v>64.901935701163652</v>
+      </c>
+      <c r="T33">
+        <v>104.02769253557477</v>
+      </c>
+      <c r="U33">
+        <v>101.14203451884703</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>300</v>
       </c>
@@ -8282,16 +11944,28 @@
         <v>300</v>
       </c>
       <c r="O34">
-        <v>108.11871201266</v>
+        <v>104.12488928479945</v>
       </c>
       <c r="P34" s="11">
         <v>120.37</v>
       </c>
       <c r="Q34" s="9">
-        <v>105.79</v>
+        <v>104.76568665071467</v>
+      </c>
+      <c r="R34">
+        <v>103.0441127532264</v>
+      </c>
+      <c r="S34">
+        <v>64.901935701163652</v>
+      </c>
+      <c r="T34">
+        <v>104.09193638257148</v>
+      </c>
+      <c r="U34">
+        <v>101.14203451884703</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>400</v>
       </c>
@@ -8326,16 +12000,28 @@
         <v>400</v>
       </c>
       <c r="O35">
-        <v>108.100436427529</v>
+        <v>104.29</v>
       </c>
       <c r="P35" s="11">
         <v>120.37</v>
       </c>
       <c r="Q35" s="9">
-        <v>105.79</v>
+        <v>104.76568665071467</v>
+      </c>
+      <c r="R35">
+        <v>103.52</v>
+      </c>
+      <c r="S35">
+        <v>64.901935701163652</v>
+      </c>
+      <c r="T35">
+        <v>104.27</v>
+      </c>
+      <c r="U35">
+        <v>101.14203451884703</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -8343,7 +12029,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>5</v>
       </c>
@@ -8357,7 +12043,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>10</v>
       </c>
@@ -8371,7 +12057,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>15</v>
       </c>
@@ -8385,7 +12071,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>20</v>
       </c>
@@ -8399,7 +12085,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>30</v>
       </c>
@@ -8413,7 +12099,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>40</v>
       </c>
@@ -8427,7 +12113,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>50</v>
       </c>
@@ -8441,7 +12127,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>75</v>
       </c>
@@ -8458,7 +12144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>100</v>
       </c>
@@ -8472,7 +12158,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>150</v>
       </c>

--- a/results/robust_recourse_iterative/Main workbooks/recourse algorithm results comparison.xlsx
+++ b/results/robust_recourse_iterative/Main workbooks/recourse algorithm results comparison.xlsx
@@ -3337,7 +3337,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4116,7 +4116,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nb-NO" sz="1600"/>
-                  <a:t>Oil Output [Sm3/h]</a:t>
+                  <a:t>Oil Output [SOR]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -10124,16 +10124,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>340305</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45896</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>294412</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10486,8 +10486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AK62" sqref="AK62"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R85" sqref="R85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
